--- a/Final Project_WIP/Resources/Analog Reading Chart.xlsx
+++ b/Final Project_WIP/Resources/Analog Reading Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry Chun\Desktop\MTEC 2280\GitHub\InsAndOuts_Terry\Final Project_WIP\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry Chun\Desktop\Final_Project_Read\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3C965D-3525-49BB-A3F8-5B8633C0E2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6163B9DF-3A3F-49E5-84C4-4D34866D578E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="7040" windowWidth="17290" windowHeight="12890" xr2:uid="{EB3A8AA9-E70D-430E-9541-6A010736453E}"/>
+    <workbookView xWindow="8610" yWindow="1260" windowWidth="28800" windowHeight="15460" xr2:uid="{EB3A8AA9-E70D-430E-9541-6A010736453E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,74 +30,74 @@
     <t>NO TRIGGER</t>
   </si>
   <si>
-    <t>1 VALVE</t>
-  </si>
-  <si>
-    <t>2 VALVE</t>
-  </si>
-  <si>
-    <t>3 VALVE</t>
-  </si>
-  <si>
     <t>OPEN</t>
   </si>
   <si>
-    <t>PRESSED</t>
-  </si>
-  <si>
-    <t>NOT PRESSED</t>
-  </si>
-  <si>
     <t>TRIGGER 1</t>
   </si>
   <si>
-    <t>1018-1023</t>
-  </si>
-  <si>
-    <t>870-875</t>
-  </si>
-  <si>
-    <t>958-962</t>
-  </si>
-  <si>
-    <t>821-826</t>
-  </si>
-  <si>
-    <t>903-908</t>
-  </si>
-  <si>
-    <t>779-782</t>
-  </si>
-  <si>
-    <t>TRIGGER 2</t>
-  </si>
-  <si>
-    <t>0-7</t>
-  </si>
-  <si>
-    <t>602-607</t>
-  </si>
-  <si>
-    <t>510-514</t>
-  </si>
-  <si>
-    <t>582-587</t>
-  </si>
-  <si>
-    <t>562-567</t>
-  </si>
-  <si>
-    <t>492-498</t>
-  </si>
-  <si>
-    <t>530-534</t>
+    <t>1 VALVE PRESSED</t>
+  </si>
+  <si>
+    <t>2 VALVES PRESSED</t>
+  </si>
+  <si>
+    <t>3 VALVES PRESSED</t>
+  </si>
+  <si>
+    <t>PRESSED VALVE</t>
+  </si>
+  <si>
+    <t>OPEN VALVE</t>
+  </si>
+  <si>
+    <t>TRIGGER 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1019-1021</t>
+  </si>
+  <si>
+    <t>873-875</t>
+  </si>
+  <si>
+    <t>960-962</t>
+  </si>
+  <si>
+    <t>826-827</t>
+  </si>
+  <si>
+    <t>908-909</t>
+  </si>
+  <si>
+    <t>782-784</t>
+  </si>
+  <si>
+    <t>607-608</t>
+  </si>
+  <si>
+    <t>532-534</t>
+  </si>
+  <si>
+    <t>586-590</t>
+  </si>
+  <si>
+    <t>512-515</t>
+  </si>
+  <si>
+    <t>566-567</t>
+  </si>
+  <si>
+    <t>496-498</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +105,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,13 +154,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -445,122 +580,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6E441B-DD5F-41C4-B802-4F39D607C5D6}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="6" max="8" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>